--- a/ImportCSV/Round7- Teaup.xlsx
+++ b/ImportCSV/Round7- Teaup.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calhamd\Documents\WSL_Fantasy\ImportCSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WSLapp\ImportCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4E1206C8-FD25-4B04-AF91-9952E8DA8320}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4556AE9C-A55E-4FEE-8330-70C0C0787BAD}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5768" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17985" windowHeight="5775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Round6-JBay" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Round6-JBay'!$A$1:$G$46</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="80">
   <si>
     <t>Odds</t>
   </si>
@@ -223,116 +224,56 @@
     <t>Rank</t>
   </si>
   <si>
-    <t>Gabriel Medina5.00</t>
-  </si>
-  <si>
-    <t>Jordy Smith7.00</t>
-  </si>
-  <si>
-    <t>Owen Wright7.00</t>
-  </si>
-  <si>
-    <t>Kelly Slater11.00</t>
-  </si>
-  <si>
-    <t>Julian Wison14.00</t>
-  </si>
-  <si>
-    <t>Michel Bourez18.00</t>
-  </si>
-  <si>
-    <t>Matt Wilkinson18.00</t>
-  </si>
-  <si>
-    <t>Adriano de Souza18.00</t>
-  </si>
-  <si>
-    <t>Filipe Toledo18.00</t>
-  </si>
-  <si>
-    <t>Wade Carmichael21.00</t>
-  </si>
-  <si>
-    <t>Adrian Buchan21.00</t>
-  </si>
-  <si>
-    <t>Joel Parkinson23.00</t>
-  </si>
-  <si>
-    <t>Jeremy Flores23.00</t>
-  </si>
-  <si>
-    <t>Kolohe Andino34.00</t>
-  </si>
-  <si>
-    <t>Connor O'Leary41.00</t>
-  </si>
-  <si>
-    <t>Mikey Wright41.00</t>
-  </si>
-  <si>
-    <t>Joan Duru41.00</t>
-  </si>
-  <si>
-    <t>Frederico Morais41.00</t>
-  </si>
-  <si>
-    <t>Griffen Colapinto41.00</t>
-  </si>
-  <si>
-    <t>Michael Rodrigues41.00</t>
-  </si>
-  <si>
-    <t>Kanoa Igarashi41.00</t>
-  </si>
-  <si>
-    <t>Connor Coffin51.00</t>
-  </si>
-  <si>
-    <t>Ian Gouveia51.00</t>
-  </si>
-  <si>
-    <t>Yago Dora51.00</t>
-  </si>
-  <si>
-    <t>Ezekiel Lau51.00</t>
-  </si>
-  <si>
-    <t>Sebastian Zietz51.00</t>
-  </si>
-  <si>
-    <t>Keanu Asing51.00</t>
-  </si>
-  <si>
-    <t>Tomas Hermes67.00</t>
-  </si>
-  <si>
-    <t>Michael February81.00</t>
-  </si>
-  <si>
-    <t>Jesse Mendes81.00</t>
-  </si>
-  <si>
-    <t>Patrick Gudauskas81.00</t>
-  </si>
-  <si>
-    <t>Miguel Pupo81.00</t>
-  </si>
-  <si>
-    <t>Caio Ibelli91.00</t>
-  </si>
-  <si>
     <t>Connor Coffin</t>
   </si>
   <si>
     <t>Griffen Colapinto</t>
+  </si>
+  <si>
+    <t>5.00</t>
+  </si>
+  <si>
+    <t>7.00</t>
+  </si>
+  <si>
+    <t>14.00</t>
+  </si>
+  <si>
+    <t>18.00</t>
+  </si>
+  <si>
+    <t>21.00</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>34.00</t>
+  </si>
+  <si>
+    <t>41.00</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>67.00</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>91.00</t>
+  </si>
+  <si>
+    <t>Julian Wison</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -467,28 +408,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="4"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -668,12 +589,6 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F1F1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -791,7 +706,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -834,24 +749,11 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="42" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -885,7 +787,6 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1208,18 +1109,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A43" sqref="A2:A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="8.46484375" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
     <col min="3" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1143,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>AVERAGEIF(Sheet5!A:A,C2,Sheet5!B:B)</f>
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -1262,7 +1167,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>AVERAGEIF(Sheet5!A:A,C3,Sheet5!B:B)</f>
+        <v>15</v>
+      </c>
       <c r="B3" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1191,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>AVERAGEIF(Sheet5!A:A,C4,Sheet5!B:B)</f>
+        <v>5</v>
+      </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
@@ -1302,7 +1215,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>AVERAGEIF(Sheet5!A:A,C5,Sheet5!B:B)</f>
+        <v>9</v>
+      </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1239,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>AVERAGEIF(Sheet5!A:A,C6,Sheet5!B:B)</f>
+        <v>16</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1342,7 +1263,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>AVERAGEIF(Sheet5!A:A,C7,Sheet5!B:B)</f>
+        <v>8</v>
+      </c>
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -1362,7 +1287,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C8,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1382,7 +1311,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>AVERAGEIF(Sheet5!A:A,C9,Sheet5!B:B)</f>
+        <v>6</v>
+      </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
@@ -1402,7 +1335,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>AVERAGEIF(Sheet5!A:A,C10,Sheet5!B:B)</f>
+        <v>36</v>
+      </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1419,7 +1356,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>AVERAGEIF(Sheet5!A:A,C11,Sheet5!B:B)</f>
+        <v>31</v>
+      </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
@@ -1439,7 +1380,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C12,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -1459,7 +1404,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>AVERAGEIF(Sheet5!A:A,C13,Sheet5!B:B)</f>
+        <v>51</v>
+      </c>
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1479,7 +1428,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>AVERAGEIF(Sheet5!A:A,C14,Sheet5!B:B)</f>
+        <v>21</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -1499,7 +1452,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>AVERAGEIF(Sheet5!A:A,C15,Sheet5!B:B)</f>
+        <v>31</v>
+      </c>
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1519,7 +1476,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>AVERAGEIF(Sheet5!A:A,C16,Sheet5!B:B)</f>
+        <v>18</v>
+      </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
@@ -1539,7 +1500,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>AVERAGEIF(Sheet5!A:A,C17,Sheet5!B:B)</f>
+        <v>36</v>
+      </c>
       <c r="B17" t="s">
         <v>11</v>
       </c>
@@ -1559,7 +1524,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C18,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1548,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>AVERAGEIF(Sheet5!A:A,C19,Sheet5!B:B)</f>
+        <v>51</v>
+      </c>
       <c r="B19" t="s">
         <v>11</v>
       </c>
@@ -1599,7 +1572,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>AVERAGEIF(Sheet5!A:A,C20,Sheet5!B:B)</f>
+        <v>61</v>
+      </c>
       <c r="B20" t="s">
         <v>11</v>
       </c>
@@ -1619,7 +1596,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>AVERAGEIF(Sheet5!A:A,C21,Sheet5!B:B)</f>
+        <v>41</v>
+      </c>
       <c r="B21" t="s">
         <v>11</v>
       </c>
@@ -1639,7 +1620,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>AVERAGEIF(Sheet5!A:A,C22,Sheet5!B:B)</f>
+        <v>61</v>
+      </c>
       <c r="B22" t="s">
         <v>11</v>
       </c>
@@ -1659,7 +1644,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>AVERAGEIF(Sheet5!A:A,C23,Sheet5!B:B)</f>
+        <v>101</v>
+      </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
@@ -1679,7 +1668,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>AVERAGEIF(Sheet5!A:A,C24,Sheet5!B:B)</f>
+        <v>16</v>
+      </c>
       <c r="B24" t="s">
         <v>8</v>
       </c>
@@ -1699,7 +1692,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>AVERAGEIF(Sheet5!A:A,C25,Sheet5!B:B)</f>
+        <v>21</v>
+      </c>
       <c r="B25" t="s">
         <v>11</v>
       </c>
@@ -1719,7 +1716,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>AVERAGEIF(Sheet5!A:A,C26,Sheet5!B:B)</f>
+        <v>41</v>
+      </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
@@ -1739,7 +1740,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>AVERAGEIF(Sheet5!A:A,C27,Sheet5!B:B)</f>
+        <v>126</v>
+      </c>
       <c r="B27" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1764,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>AVERAGEIF(Sheet5!A:A,C28,Sheet5!B:B)</f>
+        <v>61</v>
+      </c>
       <c r="B28" t="s">
         <v>8</v>
       </c>
@@ -1779,7 +1788,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>AVERAGEIF(Sheet5!A:A,C29,Sheet5!B:B)</f>
+        <v>101</v>
+      </c>
       <c r="B29" t="s">
         <v>11</v>
       </c>
@@ -1799,7 +1812,11 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>AVERAGEIF(Sheet5!A:A,C30,Sheet5!B:B)</f>
+        <v>51</v>
+      </c>
       <c r="B30" t="s">
         <v>8</v>
       </c>
@@ -1819,7 +1836,11 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>AVERAGEIF(Sheet5!A:A,C31,Sheet5!B:B)</f>
+        <v>67</v>
+      </c>
       <c r="B31" t="s">
         <v>11</v>
       </c>
@@ -1839,7 +1860,11 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>AVERAGEIF(Sheet5!A:A,C32,Sheet5!B:B)</f>
+        <v>101</v>
+      </c>
       <c r="B32" t="s">
         <v>11</v>
       </c>
@@ -1859,7 +1884,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>AVERAGEIF(Sheet5!A:A,C33,Sheet5!B:B)</f>
+        <v>71</v>
+      </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
@@ -1879,7 +1908,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>AVERAGEIF(Sheet5!A:A,C34,Sheet5!B:B)</f>
+        <v>11</v>
+      </c>
       <c r="B34" t="s">
         <v>11</v>
       </c>
@@ -1899,7 +1932,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f>AVERAGEIF(Sheet5!A:A,C35,Sheet5!B:B)</f>
+        <v>81</v>
+      </c>
       <c r="B35" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +1953,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C36,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
@@ -1930,7 +1971,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C37,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C37" t="s">
         <v>63</v>
       </c>
@@ -1944,7 +1989,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f>AVERAGEIF(Sheet5!A:A,C38,Sheet5!B:B)</f>
+        <v>126</v>
+      </c>
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -1958,7 +2007,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C39,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -1972,7 +2025,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C40,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C40" t="s">
         <v>6</v>
       </c>
@@ -1980,7 +2037,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C41,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="B41" t="s">
         <v>11</v>
       </c>
@@ -1991,12 +2052,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C42,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C42" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="e">
+        <f>AVERAGEIF(Sheet5!A:A,C43,Sheet5!B:B)</f>
+        <v>#DIV/0!</v>
+      </c>
       <c r="C43" t="s">
         <v>55</v>
       </c>
@@ -2016,461 +2085,592 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E34"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1048576"/>
+      <selection activeCell="A33" sqref="A33:B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.06640625" customWidth="1"/>
+    <col min="1" max="2" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4">
+      <c r="B33">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>20</v>
+      </c>
+      <c r="B39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
+      <c r="B53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59">
         <v>67</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="4">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60">
         <v>71</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="4">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" s="4">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61">
         <v>81</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="4">
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="4">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E19" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B22" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E24" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="4">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="4">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="4">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="4">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="B62">
         <v>101</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D31" s="3" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>48</v>
       </c>
-      <c r="E31" s="4">
+      <c r="B63">
         <v>101</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="3" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="4">
+      <c r="B64">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D33" s="3" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="4">
+      <c r="B65">
         <v>126</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B34" s="2"/>
-      <c r="D34" s="3" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="4">
+      <c r="B66">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="javascript:void(null)" xr:uid="{7B8A1AFA-959C-4505-89E7-139CD62D1876}"/>
-    <hyperlink ref="B2" r:id="rId2" display="javascript:void(null)" xr:uid="{BC0FC47D-975B-4E3F-BA8A-8F96E830AEF3}"/>
-    <hyperlink ref="B3" r:id="rId3" display="javascript:void(null)" xr:uid="{D36DEA7E-0124-4645-AFCF-E96B01328D0B}"/>
-    <hyperlink ref="B4" r:id="rId4" display="javascript:void(null)" xr:uid="{3A9A7543-B4C7-438A-8AC6-399356EEB83C}"/>
-    <hyperlink ref="B5" r:id="rId5" display="javascript:void(null)" xr:uid="{4FC4176D-C8FC-4957-B07D-8D3966E644B0}"/>
-    <hyperlink ref="B6" r:id="rId6" display="javascript:void(null)" xr:uid="{CEB8B0F3-4269-496D-A9F6-68B1F999ECC9}"/>
-    <hyperlink ref="B7" r:id="rId7" display="javascript:void(null)" xr:uid="{5D38828B-A2E4-4EBE-B7B2-A08AD493B70E}"/>
-    <hyperlink ref="B8" r:id="rId8" display="javascript:void(null)" xr:uid="{E8987786-FB51-4DDB-B3D6-F38F1992909D}"/>
-    <hyperlink ref="B9" r:id="rId9" display="javascript:void(null)" xr:uid="{278F2094-BBAD-4E45-866A-0BE771214B6D}"/>
-    <hyperlink ref="B10" r:id="rId10" display="javascript:void(null)" xr:uid="{3D415DC5-37B9-48AD-8F5C-C8A7E542C2FC}"/>
-    <hyperlink ref="B11" r:id="rId11" display="javascript:void(null)" xr:uid="{9C0A9A4B-C915-4245-AB3C-7717B2A34C3D}"/>
-    <hyperlink ref="B12" r:id="rId12" display="javascript:void(null)" xr:uid="{32EAA04A-B14D-4DF2-9581-680876C897E7}"/>
-    <hyperlink ref="B13" r:id="rId13" display="javascript:void(null)" xr:uid="{606BAB39-2C90-4CA5-B4B7-A8789EA73121}"/>
-    <hyperlink ref="B14" r:id="rId14" display="javascript:void(null)" xr:uid="{736A4817-AB13-4D66-9AC5-A13FDC3BCC6C}"/>
-    <hyperlink ref="B15" r:id="rId15" display="javascript:void(null)" xr:uid="{3BF29E4B-977F-4E69-AA29-CD4BF2DF4602}"/>
-    <hyperlink ref="B16" r:id="rId16" display="javascript:void(null)" xr:uid="{F5301A21-26F6-4C0A-AAA8-93743C52B57D}"/>
-    <hyperlink ref="B17" r:id="rId17" display="javascript:void(null)" xr:uid="{153F21BE-557B-4E33-BCC5-CA1AE1A684EC}"/>
-    <hyperlink ref="B18" r:id="rId18" display="javascript:void(null)" xr:uid="{5BFCF221-272A-4793-8EFD-E72784FE3906}"/>
-    <hyperlink ref="B19" r:id="rId19" display="javascript:void(null)" xr:uid="{3A574CA4-3C04-4E3C-BD7B-EE694EB878F5}"/>
-    <hyperlink ref="B20" r:id="rId20" display="javascript:void(null)" xr:uid="{8C45519A-8A41-4FEB-AC89-B05590B7459F}"/>
-    <hyperlink ref="B21" r:id="rId21" display="javascript:void(null)" xr:uid="{F121AFED-9C36-44CE-B3D8-8EEE2ABFDD18}"/>
-    <hyperlink ref="B22" r:id="rId22" display="javascript:void(null)" xr:uid="{A050671D-ACD4-4436-B101-65B7A4DA6B2F}"/>
-    <hyperlink ref="B23" r:id="rId23" display="javascript:void(null)" xr:uid="{F7F26497-8654-4B86-A089-59AFF3F31EB3}"/>
-    <hyperlink ref="B24" r:id="rId24" display="javascript:void(null)" xr:uid="{D3132036-4B66-4DD7-B30C-7689C1874BBE}"/>
-    <hyperlink ref="B25" r:id="rId25" display="javascript:void(null)" xr:uid="{0DB8A48C-3A97-4B08-BAB3-3C60ECD21312}"/>
-    <hyperlink ref="B26" r:id="rId26" display="javascript:void(null)" xr:uid="{A4916F2F-E27D-41D1-92B4-DCFFC3ACCF83}"/>
-    <hyperlink ref="B27" r:id="rId27" display="javascript:void(null)" xr:uid="{EBCE62B7-9ECC-4DD4-B92C-B98FDBE0E7DF}"/>
-    <hyperlink ref="B28" r:id="rId28" display="javascript:void(null)" xr:uid="{AD8C2130-D24F-491A-9CB4-F069AF4333EE}"/>
-    <hyperlink ref="B29" r:id="rId29" display="javascript:void(null)" xr:uid="{F97864A3-A688-4E2F-8A66-28030B7499C4}"/>
-    <hyperlink ref="B30" r:id="rId30" display="javascript:void(null)" xr:uid="{B677AD4E-7A98-44EF-9C3E-BF5D1DE8E17E}"/>
-    <hyperlink ref="B31" r:id="rId31" display="javascript:void(null)" xr:uid="{39AE45C6-BEEF-4E54-BEEA-963D2DA73F23}"/>
-    <hyperlink ref="B32" r:id="rId32" display="javascript:void(null)" xr:uid="{62605998-C373-41CC-A40A-EB9B16135915}"/>
-    <hyperlink ref="B33" r:id="rId33" display="javascript:void(null)" xr:uid="{95F14799-C6D2-4172-AF79-1B64C318BC5E}"/>
-    <hyperlink ref="E1" r:id="rId34" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{605BE309-BA14-4B41-B7BB-B55C04999375}"/>
-    <hyperlink ref="E2" r:id="rId35" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{B0B460F3-E4BC-4903-8450-0F8B435F4905}"/>
-    <hyperlink ref="E3" r:id="rId36" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{3C407412-A728-43FB-B859-E30D43DF6FBA}"/>
-    <hyperlink ref="E4" r:id="rId37" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{44BCD315-6EB3-4790-9F05-41F9AD55E43F}"/>
-    <hyperlink ref="E5" r:id="rId38" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{A3E61ACC-2871-43BB-B4B3-C776BA048D7D}"/>
-    <hyperlink ref="E6" r:id="rId39" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{DEA16098-58DC-449C-AFC2-F4A449C57E1B}"/>
-    <hyperlink ref="E7" r:id="rId40" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{2A97AE2C-82B8-4A2D-898F-8BCAAA81540F}"/>
-    <hyperlink ref="E8" r:id="rId41" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{E7FAB3BF-C4AC-43F8-88CD-E3B4A2412B65}"/>
-    <hyperlink ref="E9" r:id="rId42" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{8DDE2A3D-3A37-409C-84DA-070FC909D9F8}"/>
-    <hyperlink ref="E10" r:id="rId43" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{9DCA1C42-DB6C-44DA-A1AF-D289685C3242}"/>
-    <hyperlink ref="E11" r:id="rId44" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{8E77E6C7-27FF-47EF-9BC6-B3AB9EB97F65}"/>
-    <hyperlink ref="E12" r:id="rId45" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{696FBC53-78D2-4560-AA93-CC1AF3F1C951}"/>
-    <hyperlink ref="E13" r:id="rId46" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{D06D206C-8492-4182-BB10-C8B6D9DC4577}"/>
-    <hyperlink ref="E14" r:id="rId47" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{12D97849-4CDC-48F0-870D-4F731351BEB2}"/>
-    <hyperlink ref="E15" r:id="rId48" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{6EF6682E-AF99-4966-982D-82FFF557C8D7}"/>
-    <hyperlink ref="E16" r:id="rId49" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{A8E62618-B2D0-4891-A93A-86A867FAAA38}"/>
-    <hyperlink ref="E17" r:id="rId50" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{11E6F406-0045-4877-B891-C58BB96C4BCA}"/>
-    <hyperlink ref="E18" r:id="rId51" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{0448C947-FD6C-4283-8D02-B6766CF270B6}"/>
-    <hyperlink ref="E19" r:id="rId52" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{319C1218-AD6C-40E5-A107-76DFB65F0935}"/>
-    <hyperlink ref="E20" r:id="rId53" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{71137826-FDD2-44DF-80FF-11CCF21F0A96}"/>
-    <hyperlink ref="E21" r:id="rId54" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{794CFA5B-BC26-4859-A293-4CDAF10CD437}"/>
-    <hyperlink ref="E22" r:id="rId55" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{97ED9386-7B48-4407-BD75-2F6F75D40817}"/>
-    <hyperlink ref="E23" r:id="rId56" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{7E11508B-19C6-44A9-8F72-A1C8E5C59F37}"/>
-    <hyperlink ref="E24" r:id="rId57" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{3B093656-3095-4ABE-B525-C0A607C8E653}"/>
-    <hyperlink ref="E25" r:id="rId58" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{156C6CFB-41E0-4225-84A3-91F8105A4B22}"/>
-    <hyperlink ref="E26" r:id="rId59" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{857FE7D1-D498-4737-9F34-FFC0B979490B}"/>
-    <hyperlink ref="E27" r:id="rId60" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{59BF810C-5B26-4FBF-90A6-FEBD089CC0A9}"/>
-    <hyperlink ref="E28" r:id="rId61" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{12F51820-BD20-4F6F-9A82-CAE245432E2A}"/>
-    <hyperlink ref="E29" r:id="rId62" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{0EC72CEE-C347-432F-B17D-2AB1FC3D347E}"/>
-    <hyperlink ref="E30" r:id="rId63" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{30FB2C4A-14E2-4A08-B5C8-7D6FA7FA52FC}"/>
-    <hyperlink ref="E31" r:id="rId64" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{443B0746-F516-4358-8067-0AD8452ECB75}"/>
-    <hyperlink ref="E32" r:id="rId65" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{0C25D166-00A7-4F0A-83A0-82A0A9055E81}"/>
-    <hyperlink ref="E33" r:id="rId66" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{53D9E137-D432-4623-B449-DDDBB725211E}"/>
-    <hyperlink ref="E34" r:id="rId67" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{8C51F6C3-610C-4364-BECA-1274C28AC076}"/>
+    <hyperlink ref="A32" r:id="rId1" display="javascript:void(null)" xr:uid="{F2FA527F-73E0-4AD9-9798-1B4CCAA25F16}"/>
+    <hyperlink ref="A31" r:id="rId2" display="javascript:void(null)" xr:uid="{D7580C96-366E-4545-A810-624828EDACBB}"/>
+    <hyperlink ref="A30" r:id="rId3" display="javascript:void(null)" xr:uid="{6511421C-C9C4-4684-8F6F-D1DB9EFA19BF}"/>
+    <hyperlink ref="A29" r:id="rId4" display="javascript:void(null)" xr:uid="{363372C5-6BF1-4A76-8FAE-CF0765214FD4}"/>
+    <hyperlink ref="A28" r:id="rId5" display="javascript:void(null)" xr:uid="{B9411EC4-D22C-404A-8BBE-6CF9D9BE0AB2}"/>
+    <hyperlink ref="A27" r:id="rId6" display="javascript:void(null)" xr:uid="{A9D13EE9-DF42-4DA8-8E3A-B2719833A276}"/>
+    <hyperlink ref="A26" r:id="rId7" display="javascript:void(null)" xr:uid="{49A0B57A-091A-4737-84DD-D61A8AC790E2}"/>
+    <hyperlink ref="A25" r:id="rId8" display="javascript:void(null)" xr:uid="{0512254A-2D62-445D-86C0-520F1557A5DA}"/>
+    <hyperlink ref="A24" r:id="rId9" display="javascript:void(null)" xr:uid="{36850C25-9FAD-4E54-86B9-29C03FA48F98}"/>
+    <hyperlink ref="A23" r:id="rId10" display="javascript:void(null)" xr:uid="{1001DF1E-7B31-4A94-AF17-DD13CD0AA678}"/>
+    <hyperlink ref="A22" r:id="rId11" display="javascript:void(null)" xr:uid="{1A2DA630-B884-41EC-9B13-21EF3C67B7A9}"/>
+    <hyperlink ref="A21" r:id="rId12" display="javascript:void(null)" xr:uid="{81B69A35-9950-4475-A0E0-481F01FADC19}"/>
+    <hyperlink ref="A20" r:id="rId13" display="javascript:void(null)" xr:uid="{2B73DF94-F265-4A0C-A2D9-25611536CDB9}"/>
+    <hyperlink ref="A19" r:id="rId14" display="javascript:void(null)" xr:uid="{92DF9832-833F-4DFB-816B-83760D9DDAE3}"/>
+    <hyperlink ref="A18" r:id="rId15" display="javascript:void(null)" xr:uid="{6166FD6F-A9F0-45E8-9B64-CD3C586DC586}"/>
+    <hyperlink ref="A17" r:id="rId16" display="javascript:void(null)" xr:uid="{BBC3A065-F623-4C4A-B455-C929A6402D2B}"/>
+    <hyperlink ref="A16" r:id="rId17" display="javascript:void(null)" xr:uid="{EEA97635-F3C6-4666-AC30-BB97E1313717}"/>
+    <hyperlink ref="A15" r:id="rId18" display="javascript:void(null)" xr:uid="{0D03BA07-6503-4FEB-9DB3-A29B6C7CAF19}"/>
+    <hyperlink ref="A14" r:id="rId19" display="javascript:void(null)" xr:uid="{192D6C40-275A-48BC-AB04-ABE4D65DBC9D}"/>
+    <hyperlink ref="A13" r:id="rId20" display="javascript:void(null)" xr:uid="{6743FE10-495F-40F8-BE83-165B62937731}"/>
+    <hyperlink ref="A12" r:id="rId21" display="javascript:void(null)" xr:uid="{C497A6E1-F825-4E1B-9E68-8B4E9DB6B604}"/>
+    <hyperlink ref="A11" r:id="rId22" display="javascript:void(null)" xr:uid="{FBC455EB-1AD8-41FF-86A8-CAB4F91B8BC0}"/>
+    <hyperlink ref="A10" r:id="rId23" display="javascript:void(null)" xr:uid="{C8EC7B3F-069A-4D67-9613-8CC25A67021A}"/>
+    <hyperlink ref="A9" r:id="rId24" display="javascript:void(null)" xr:uid="{7157BC68-C35A-4342-96A3-B60870C6B5B5}"/>
+    <hyperlink ref="A8" r:id="rId25" display="javascript:void(null)" xr:uid="{46B11DED-BA1D-4902-A3DF-093F55DCC71F}"/>
+    <hyperlink ref="A7" r:id="rId26" display="javascript:void(null)" xr:uid="{9E779C38-3370-4C97-A301-1DD588089E8A}"/>
+    <hyperlink ref="A6" r:id="rId27" display="javascript:void(null)" xr:uid="{B1621137-D7AE-4EB2-81AB-B14BDEF11FFF}"/>
+    <hyperlink ref="A5" r:id="rId28" display="javascript:void(null)" xr:uid="{B4134001-AF50-400C-B3F0-38F82B2C771F}"/>
+    <hyperlink ref="A4" r:id="rId29" display="javascript:void(null)" xr:uid="{AEC3332F-4257-4551-86A8-FC91A5CB640C}"/>
+    <hyperlink ref="A3" r:id="rId30" display="javascript:void(null)" xr:uid="{4F48AEE2-F2B5-439A-B1B1-A33C2EC65FAF}"/>
+    <hyperlink ref="A2" r:id="rId31" display="javascript:void(null)" xr:uid="{EC26DA19-323A-4DD4-85B3-14D65FC49A80}"/>
+    <hyperlink ref="A1" r:id="rId32" display="javascript:void(null)" xr:uid="{3511CD2C-ECCC-4944-9A73-89914F8A9AB5}"/>
+    <hyperlink ref="B67" r:id="rId33" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{AF5F5779-1E4E-41F7-A7F0-C1D1296061C3}"/>
+    <hyperlink ref="B33" r:id="rId34" location="bet" display="https://www.ladbrokes.com.au/sports/surfing/59745934-2018-tahiti-pro-teahupoo/59745934-2018-tahiti-pro-teahupoo/ - bet" xr:uid="{DC99BB81-2D22-4F0F-82C1-1810081C5243}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2482,12 +2682,12 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="14.9296875" customWidth="1"/>
+    <col min="1" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>62</v>
       </c>
@@ -2495,7 +2695,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -2503,7 +2703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -2511,7 +2711,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -2519,7 +2719,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2527,7 +2727,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -2535,7 +2735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2543,7 +2743,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>62</v>
       </c>
@@ -2551,7 +2751,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
@@ -2559,7 +2759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>62</v>
       </c>
@@ -2567,7 +2767,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>61</v>
       </c>
@@ -2575,7 +2775,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -2583,7 +2783,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -2591,7 +2791,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2599,7 +2799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -2607,7 +2807,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>61</v>
       </c>
@@ -2615,7 +2815,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>62</v>
       </c>
@@ -2623,7 +2823,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -2631,7 +2831,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -2639,7 +2839,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -2647,7 +2847,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>61</v>
       </c>
@@ -2655,7 +2855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -2663,7 +2863,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -2671,7 +2871,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>61</v>
       </c>
@@ -2679,7 +2879,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>61</v>
       </c>
@@ -2687,7 +2887,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>62</v>
       </c>
@@ -2695,7 +2895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -2703,7 +2903,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -2711,7 +2911,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -2719,7 +2919,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -2727,7 +2927,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>62</v>
       </c>
@@ -2735,7 +2935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -2743,7 +2943,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -2751,7 +2951,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>61</v>
       </c>
@@ -2759,7 +2959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -2780,12 +2980,12 @@
       <selection activeCell="E2" sqref="E2:E731"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1328125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -2793,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2801,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2809,7 +3009,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2817,7 +3017,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2825,7 +3025,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2833,7 +3033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2841,7 +3041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2849,7 +3049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -2857,7 +3057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -2865,7 +3065,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2873,7 +3073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -2881,7 +3081,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -2889,7 +3089,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -2897,7 +3097,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>31</v>
       </c>
@@ -2905,7 +3105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2913,7 +3113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>35</v>
       </c>
@@ -2921,7 +3121,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -2929,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>38</v>
       </c>
@@ -2937,7 +3137,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>58</v>
       </c>
@@ -2945,7 +3145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -2953,7 +3153,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2961,7 +3161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>41</v>
       </c>
@@ -2969,7 +3169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -2977,7 +3177,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>43</v>
       </c>
@@ -2985,7 +3185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -2993,7 +3193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -3001,7 +3201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -3009,7 +3209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -3017,7 +3217,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>49</v>
       </c>
@@ -3025,7 +3225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -3033,7 +3233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>52</v>
       </c>
@@ -3041,7 +3241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -3049,7 +3249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -3057,7 +3257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
